--- a/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
+++ b/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Very High</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>Decimal format for seconds only field 0.1</t>
+  </si>
+  <si>
+    <t>Set user input length for all textfields.</t>
+  </si>
+  <si>
+    <t>Consider taking the existing combobox for Pace out.  This will have to refactor some code but may be beneficial in long???</t>
+  </si>
+  <si>
+    <t>Junit test for the Unit Converter class.</t>
+  </si>
+  <si>
+    <t>Update UI layout to compensate for textfields that were taken out.</t>
+  </si>
+  <si>
+    <t>Misc UI updates to enhance layout visually??</t>
   </si>
 </sst>
 </file>
@@ -316,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,6 +378,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,11 +599,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="290673040"/>
-        <c:axId val="290665984"/>
+        <c:axId val="518877680"/>
+        <c:axId val="518879856"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="290673040"/>
+        <c:axId val="518877680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,14 +646,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290665984"/>
+        <c:crossAx val="518879856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="290665984"/>
+        <c:axId val="518879856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290673040"/>
+        <c:crossAx val="518877680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292170640"/>
-        <c:axId val="292176520"/>
+        <c:axId val="518874960"/>
+        <c:axId val="517913088"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="292170640"/>
+        <c:axId val="518874960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1033,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1076,14 +1099,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292176520"/>
+        <c:crossAx val="517913088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="292176520"/>
+        <c:axId val="517913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1157,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1201,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292170640"/>
+        <c:crossAx val="518874960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2706,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,8 +2784,12 @@
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2773,8 +2799,15 @@
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -2784,8 +2817,15 @@
       <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -2795,8 +2835,12 @@
       <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -2806,8 +2850,12 @@
       <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -2817,8 +2865,15 @@
       <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -2828,8 +2883,12 @@
       <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -2841,8 +2900,12 @@
       <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2857,7 +2920,9 @@
       <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -2872,7 +2937,9 @@
       <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" t="s">
         <v>54</v>
       </c>
@@ -2887,7 +2954,9 @@
       <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2899,8 +2968,12 @@
       <c r="C15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" t="s">
         <v>47</v>
       </c>
@@ -2915,8 +2988,15 @@
       <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
@@ -2931,8 +3011,15 @@
       <c r="C17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2941,21 +3028,39 @@
       <c r="B18" s="13">
         <v>15</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
       <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="25"/>
       <c r="G19" t="s">
         <v>49</v>
       </c>
@@ -2964,50 +3069,97 @@
       <c r="B20" s="13">
         <v>17</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="G21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="13">
-        <f>SUM(D4:D21)</f>
-        <v>9</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="G22" t="s">
+      <c r="D27" s="13">
+        <f>SUM(D4:D22)</f>
+        <v>34.5</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="G27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
+++ b/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Very High</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>Misc UI updates to enhance layout visually??</t>
+  </si>
+  <si>
+    <t>Added logo to the UI</t>
+  </si>
+  <si>
+    <t>Add checks for invalid data</t>
+  </si>
+  <si>
+    <t>Add checks for invlaid data</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -387,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,11 +614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="518877680"/>
-        <c:axId val="518879856"/>
+        <c:axId val="325658064"/>
+        <c:axId val="325649360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="518877680"/>
+        <c:axId val="325658064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,14 +661,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518879856"/>
+        <c:crossAx val="325649360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518879856"/>
+        <c:axId val="325649360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518877680"/>
+        <c:crossAx val="325658064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,11 +998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518874960"/>
-        <c:axId val="517913088"/>
+        <c:axId val="325656432"/>
+        <c:axId val="325659696"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="518874960"/>
+        <c:axId val="325656432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,14 +1114,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517913088"/>
+        <c:crossAx val="325659696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517913088"/>
+        <c:axId val="325659696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518874960"/>
+        <c:crossAx val="325656432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2730,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,6 +2805,9 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2841,6 +2859,9 @@
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -2856,6 +2877,9 @@
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -2872,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2906,6 +2930,9 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2922,6 +2949,9 @@
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,7 +3117,12 @@
       <c r="D21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0.5</v>
+      </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
@@ -3101,24 +3136,54 @@
         <v>2</v>
       </c>
       <c r="E22" s="9"/>
+      <c r="F22" s="27">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
@@ -3132,8 +3197,8 @@
         <v>24</v>
       </c>
       <c r="D27" s="13">
-        <f>SUM(D4:D22)</f>
-        <v>34.5</v>
+        <f>SUM(D4:D25)</f>
+        <v>36</v>
       </c>
       <c r="E27" s="13"/>
       <c r="G27" t="s">

--- a/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
+++ b/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="4" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Chart1" sheetId="3" r:id="rId3"/>
-    <sheet name="Burndown Chart" sheetId="2" r:id="rId4"/>
+    <sheet name="Burndown Chart" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Very High</t>
   </si>
@@ -103,9 +102,6 @@
     <t>Do part 1 of assignment-8(research)</t>
   </si>
   <si>
-    <t>hrs</t>
-  </si>
-  <si>
     <t>Remaining</t>
   </si>
   <si>
@@ -121,18 +117,9 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>No hours for pace</t>
-  </si>
-  <si>
     <t>no decimal in minutes or hours</t>
   </si>
   <si>
-    <t>remove distance textbox (selection only)</t>
-  </si>
-  <si>
-    <t>Mile for pace only</t>
-  </si>
-  <si>
     <t>Check for div by zero</t>
   </si>
   <si>
@@ -142,12 +129,6 @@
     <t>test  GUI</t>
   </si>
   <si>
-    <t>report reason error message appears enter correct units / decimal / char /etc</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>test Distance</t>
   </si>
   <si>
@@ -212,6 +193,40 @@
   </si>
   <si>
     <t>Add checks for invlaid data</t>
+  </si>
+  <si>
+    <t>Remove hours field from pace</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>Assign error messenges to invalid input</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove distance textbox input,
+ make selections the only option </t>
+  </si>
+  <si>
+    <t>pace must display Miles only</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -254,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -336,11 +351,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -388,21 +416,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,349 +451,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Burndown Chart'!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42669</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42670</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42670</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42670</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Chart'!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="325658064"/>
-        <c:axId val="325649360"/>
-      </c:barChart>
-      <c:dateAx>
-        <c:axId val="325658064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="325649360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="325649360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="325658064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -843,7 +530,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -861,134 +548,90 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Chart'!$A$2:$A$18</c:f>
+              <c:f>'Burndown Chart'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42669</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42669</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42669</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42669</c:v>
+                  <c:v>42679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42670</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42670</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42670</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42673</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42674</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42676</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42676</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$2:$B$18</c:f>
+              <c:f>'Burndown Chart'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -998,11 +641,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325656432"/>
-        <c:axId val="325659696"/>
-      </c:areaChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="289315832"/>
+        <c:axId val="289315048"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="325656432"/>
+        <c:axId val="289315832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,6 +693,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1114,14 +760,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325659696"/>
+        <c:crossAx val="289315048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="325659696"/>
+        <c:axId val="289315048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,6 +818,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1238,9 +885,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325656432"/>
+        <c:crossAx val="289315832"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1324,550 +971,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2383,50 +1487,12 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6298406"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2743,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,16 +1821,19 @@
     <col min="3" max="3" width="46.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C1" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -2778,9 +1847,10 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2790,14 +1860,18 @@
       <c r="C3" s="12"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9">
         <v>0.5</v>
@@ -2805,53 +1879,62 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
+      <c r="F5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2859,365 +1942,435 @@
       <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="22">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13">
-        <v>12</v>
-      </c>
       <c r="C15" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="14">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
       <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.5</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="F18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>15</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="9">
         <v>3</v>
-      </c>
-      <c r="B17" s="13">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>4</v>
-      </c>
-      <c r="B18" s="13">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13">
-        <v>16</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="14">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="13">
+        <v>3</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="13">
+        <v>19</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
+        <v>20</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="9">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="13">
+        <v>22</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9">
         <v>0.5</v>
       </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F27" s="13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13">
-        <f>SUM(D4:D25)</f>
+      <c r="D29" s="13">
+        <f>SUM(D4:D28)</f>
         <v>36</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="13">
+        <f>SUM(F4:F28)</f>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29">
+        <f>D29-F29</f>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="13"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
@@ -3225,6 +2378,12 @@
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3234,11 +2393,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3246,16 +2403,17 @@
     <col min="3" max="3" width="46.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -3270,10 +2428,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +2440,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9">
         <v>1</v>
@@ -3296,8 +2454,11 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="15">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -3312,7 +2473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -3327,7 +2488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9">
         <v>4</v>
@@ -3342,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9">
         <v>5</v>
@@ -3357,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9">
         <v>6</v>
@@ -3372,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9">
         <v>7</v>
@@ -3387,7 +2548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -3404,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -3421,7 +2582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -3438,7 +2599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -3451,8 +2612,11 @@
       <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2</v>
       </c>
@@ -3468,8 +2632,11 @@
       <c r="E15" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -3485,8 +2652,11 @@
       <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -3503,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -3511,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="14">
         <v>2</v>
@@ -3519,8 +2689,11 @@
       <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
@@ -3528,7 +2701,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -3537,18 +2710,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>17</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
         <v>24</v>
@@ -3559,26 +2732,35 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="13"/>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3590,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,30 +2789,33 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>42669</v>
+        <v>42676</v>
       </c>
       <c r="B2" s="20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>42669</v>
+        <v>42677</v>
       </c>
       <c r="B3" s="20">
         <f t="shared" ref="B3:B18" si="0">B2-C3</f>
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -3642,14 +2827,14 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>42669</v>
+        <v>42678</v>
       </c>
       <c r="B4" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -3661,14 +2846,14 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>42669</v>
+        <v>42679</v>
       </c>
       <c r="B5" s="20">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="C5" s="9">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
@@ -3680,14 +2865,14 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>42670</v>
+        <v>42680</v>
       </c>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="9">
         <v>4</v>
@@ -3699,14 +2884,14 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>42670</v>
+        <v>42681</v>
       </c>
       <c r="B7" s="20">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="9">
         <v>5</v>
@@ -3718,14 +2903,14 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>42670</v>
+        <v>42682</v>
       </c>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C8" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="9">
         <v>6</v>
@@ -3736,15 +2921,10 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>42671</v>
-      </c>
-      <c r="B9" s="20">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9">
         <v>7</v>
@@ -3755,16 +2935,9 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>42673</v>
-      </c>
-      <c r="B10" s="20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9">
         <v>8</v>
       </c>
@@ -3774,16 +2947,9 @@
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>42673</v>
-      </c>
-      <c r="B11" s="20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9">
         <v>9</v>
       </c>
@@ -3793,16 +2959,9 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>42673</v>
-      </c>
-      <c r="B12" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="9">
         <v>10</v>
       </c>
@@ -3812,16 +2971,9 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>42674</v>
-      </c>
-      <c r="B13" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -3831,16 +2983,9 @@
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>42675</v>
-      </c>
-      <c r="B14" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -3850,16 +2995,9 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>42675</v>
-      </c>
-      <c r="B15" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -3869,16 +3007,9 @@
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>42675</v>
-      </c>
-      <c r="B16" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -3888,28 +3019,14 @@
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>42676</v>
-      </c>
-      <c r="B17" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>42676</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
+++ b/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9975" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="4" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Burndown Chart" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Very High</t>
   </si>
@@ -227,6 +228,9 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Remove console output</t>
   </si>
 </sst>
 </file>
@@ -643,11 +647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289315832"/>
-        <c:axId val="289315048"/>
+        <c:axId val="264037400"/>
+        <c:axId val="264029952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="289315832"/>
+        <c:axId val="264037400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -760,14 +763,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289315048"/>
+        <c:crossAx val="264029952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="289315048"/>
+        <c:axId val="264029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +821,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -885,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289315832"/>
+        <c:crossAx val="264037400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,42 +2335,58 @@
       </c>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="13">
+        <v>23</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="13">
-        <f>SUM(D4:D28)</f>
-        <v>36</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13">
-        <f>SUM(F4:F28)</f>
+      <c r="D30" s="13">
+        <f>SUM(D4:D29)</f>
+        <v>36.25</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <f>SUM(F4:F29)</f>
         <v>14.899999999999999</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29">
-        <f>D29-F29</f>
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
       <c r="G30" s="26"/>
+      <c r="H30">
+        <f>D30-F30</f>
+        <v>21.35</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="13"/>
@@ -2384,6 +2402,9 @@
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2811,7 +2832,7 @@
         <v>42677</v>
       </c>
       <c r="B3" s="20">
-        <f t="shared" ref="B3:B18" si="0">B2-C3</f>
+        <f t="shared" ref="B3:B8" si="0">B2-C3</f>
         <v>29</v>
       </c>
       <c r="C3" s="9">

--- a/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
+++ b/assignment8/src/Backlog/Sprint 2 Backlog.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Burndown Chart" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -647,11 +646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264037400"/>
-        <c:axId val="264029952"/>
+        <c:axId val="302343600"/>
+        <c:axId val="302343992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="264037400"/>
+        <c:axId val="302343600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,14 +762,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264029952"/>
+        <c:crossAx val="302343992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264029952"/>
+        <c:axId val="302343992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264037400"/>
+        <c:crossAx val="302343600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
